--- a/biology/Médecine/William_Morrant_Baker/William_Morrant_Baker.xlsx
+++ b/biology/Médecine/William_Morrant_Baker/William_Morrant_Baker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Morrant Baker (né le 20 octobre 1839, Andover, Hampshire, Angleterre, mort le 3 octobre 1896, Pulborough, Sussex) est un chirurgien anglais. Il est le premier à décrire la tuméfaction du creux poplité maintenant connue sous le nom de kyste de Baker.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de l'avocat Benjamin Russel Baker, William Morrant Baker commence sa formation médicale comme apprenti auprès d'un chirurgien local, George Speker Payne, puis entre en tant qu'étudiant à l'hôpital St. Bartholomew à Londres en 1858. Il obtient son diplôme en 1864 et en 1867 le titre de chirurgien sénior en devenant membre du collège royal de chirurgie[1],[2].
-Souffrant d'une ataxie locomotrice progressive, il arrête sa carrière en mai 1892[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de l'avocat Benjamin Russel Baker, William Morrant Baker commence sa formation médicale comme apprenti auprès d'un chirurgien local, George Speker Payne, puis entre en tant qu'étudiant à l'hôpital St. Bartholomew à Londres en 1858. Il obtient son diplôme en 1864 et en 1867 le titre de chirurgien sénior en devenant membre du collège royal de chirurgie,.
+Souffrant d'une ataxie locomotrice progressive, il arrête sa carrière en mai 1892,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il publie de nombreux articles dans Pathological Society, Royal Medical and Chirurgical Society. Il publie également Handbook of Physiology[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il publie de nombreux articles dans Pathological Society, Royal Medical and Chirurgical Society. Il publie également Handbook of Physiology,.
 </t>
         </is>
       </c>
